--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H2">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N2">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O2">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P2">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q2">
-        <v>32.23491798651582</v>
+        <v>38.97219537818245</v>
       </c>
       <c r="R2">
-        <v>32.23491798651582</v>
+        <v>350.749758403642</v>
       </c>
       <c r="S2">
-        <v>0.003838564920149515</v>
+        <v>0.004200048771915643</v>
       </c>
       <c r="T2">
-        <v>0.003838564920149515</v>
+        <v>0.004200048771915643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H3">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N3">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O3">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P3">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q3">
-        <v>127.2600129611345</v>
+        <v>140.5461095868503</v>
       </c>
       <c r="R3">
-        <v>127.2600129611345</v>
+        <v>1264.914986281653</v>
       </c>
       <c r="S3">
-        <v>0.01515424427928515</v>
+        <v>0.01514670932031292</v>
       </c>
       <c r="T3">
-        <v>0.01515424427928515</v>
+        <v>0.01514670932031292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H4">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N4">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O4">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P4">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q4">
-        <v>50.23127888553363</v>
+        <v>59.54011865988578</v>
       </c>
       <c r="R4">
-        <v>50.23127888553363</v>
+        <v>535.8610679389719</v>
       </c>
       <c r="S4">
-        <v>0.005981588819457</v>
+        <v>0.0064166619260346</v>
       </c>
       <c r="T4">
-        <v>0.005981588819457</v>
+        <v>0.0064166619260346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H5">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I5">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J5">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N5">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O5">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P5">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q5">
-        <v>16.37611498177771</v>
+        <v>19.05961301550177</v>
       </c>
       <c r="R5">
-        <v>16.37611498177771</v>
+        <v>171.536517139516</v>
       </c>
       <c r="S5">
-        <v>0.001950083463022369</v>
+        <v>0.002054061965515041</v>
       </c>
       <c r="T5">
-        <v>0.001950083463022369</v>
+        <v>0.002054061965515041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H6">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N6">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O6">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P6">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q6">
-        <v>999.5458339286614</v>
+        <v>1113.954352015316</v>
       </c>
       <c r="R6">
-        <v>999.5458339286614</v>
+        <v>10025.58916813784</v>
       </c>
       <c r="S6">
-        <v>0.119026875632354</v>
+        <v>0.1200512971555931</v>
       </c>
       <c r="T6">
-        <v>0.119026875632354</v>
+        <v>0.1200512971555931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H7">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N7">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O7">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P7">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q7">
-        <v>3946.100183478653</v>
+        <v>4017.273056183551</v>
       </c>
       <c r="R7">
-        <v>3946.100183478653</v>
+        <v>36155.45750565195</v>
       </c>
       <c r="S7">
-        <v>0.4699053908569895</v>
+        <v>0.4329430919234096</v>
       </c>
       <c r="T7">
-        <v>0.4699053908569895</v>
+        <v>0.4329430919234096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H8">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J8">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N8">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O8">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P8">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q8">
-        <v>1557.5800615949</v>
+        <v>1701.853684584019</v>
       </c>
       <c r="R8">
-        <v>1557.5800615949</v>
+        <v>15316.68316125617</v>
       </c>
       <c r="S8">
-        <v>0.1854781261507637</v>
+        <v>0.1834094386665927</v>
       </c>
       <c r="T8">
-        <v>0.1854781261507637</v>
+        <v>0.1834094386665927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H9">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J9">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N9">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O9">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P9">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q9">
-        <v>507.7933659648156</v>
+        <v>544.7868322612351</v>
       </c>
       <c r="R9">
-        <v>507.7933659648156</v>
+        <v>4903.081490351115</v>
       </c>
       <c r="S9">
-        <v>0.0604685205680546</v>
+        <v>0.05871189045397127</v>
       </c>
       <c r="T9">
-        <v>0.0604685205680546</v>
+        <v>0.05871189045397129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H10">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N10">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O10">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P10">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q10">
-        <v>12.8857177974178</v>
+        <v>14.70779683632422</v>
       </c>
       <c r="R10">
-        <v>12.8857177974178</v>
+        <v>132.370171526918</v>
       </c>
       <c r="S10">
-        <v>0.001534443621938326</v>
+        <v>0.001585065030095035</v>
       </c>
       <c r="T10">
-        <v>0.001534443621938326</v>
+        <v>0.001585065030095035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H11">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I11">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J11">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N11">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O11">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P11">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q11">
-        <v>50.8714374455325</v>
+        <v>53.04098488370966</v>
       </c>
       <c r="R11">
-        <v>50.8714374455325</v>
+        <v>477.3688639533869</v>
       </c>
       <c r="S11">
-        <v>0.006057819514158099</v>
+        <v>0.005716247731497709</v>
       </c>
       <c r="T11">
-        <v>0.006057819514158099</v>
+        <v>0.00571624773149771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H12">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I12">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J12">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N12">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O12">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P12">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q12">
-        <v>20.07965661935716</v>
+        <v>22.46996763622089</v>
       </c>
       <c r="R12">
-        <v>20.07965661935716</v>
+        <v>202.229708725988</v>
       </c>
       <c r="S12">
-        <v>0.002391104749822985</v>
+        <v>0.002421597219753422</v>
       </c>
       <c r="T12">
-        <v>0.002391104749822985</v>
+        <v>0.002421597219753423</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H13">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I13">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J13">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N13">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O13">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P13">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q13">
-        <v>6.546255100184344</v>
+        <v>7.192946491484888</v>
       </c>
       <c r="R13">
-        <v>6.546255100184344</v>
+        <v>64.73651842336399</v>
       </c>
       <c r="S13">
-        <v>0.0007795343297113039</v>
+        <v>0.0007751866628208661</v>
       </c>
       <c r="T13">
-        <v>0.0007795343297113039</v>
+        <v>0.0007751866628208663</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H14">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I14">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J14">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N14">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O14">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P14">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q14">
-        <v>152.5680251529411</v>
+        <v>233.3621730289692</v>
       </c>
       <c r="R14">
-        <v>152.5680251529411</v>
+        <v>2100.259557260722</v>
       </c>
       <c r="S14">
-        <v>0.01816794662029381</v>
+        <v>0.02514953285876702</v>
       </c>
       <c r="T14">
-        <v>0.01816794662029381</v>
+        <v>0.02514953285876702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H15">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I15">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J15">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N15">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O15">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P15">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q15">
-        <v>602.3222663864011</v>
+        <v>841.5780847264303</v>
       </c>
       <c r="R15">
-        <v>602.3222663864011</v>
+        <v>7574.202762537872</v>
       </c>
       <c r="S15">
-        <v>0.07172511260437964</v>
+        <v>0.09069720006600278</v>
       </c>
       <c r="T15">
-        <v>0.07172511260437964</v>
+        <v>0.09069720006600278</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H16">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I16">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J16">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N16">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O16">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P16">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q16">
-        <v>237.744889677656</v>
+        <v>356.5211386744725</v>
       </c>
       <c r="R16">
-        <v>237.744889677656</v>
+        <v>3208.690248070252</v>
       </c>
       <c r="S16">
-        <v>0.02831088926124198</v>
+        <v>0.03842242286124758</v>
       </c>
       <c r="T16">
-        <v>0.02831088926124198</v>
+        <v>0.03842242286124758</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H17">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I17">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J17">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N17">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O17">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P17">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q17">
-        <v>77.50823264053136</v>
+        <v>114.1273327619284</v>
       </c>
       <c r="R17">
-        <v>77.50823264053136</v>
+        <v>1027.145994857356</v>
       </c>
       <c r="S17">
-        <v>0.009229754608377997</v>
+        <v>0.0122995473864706</v>
       </c>
       <c r="T17">
-        <v>0.009229754608377997</v>
+        <v>0.0122995473864706</v>
       </c>
     </row>
   </sheetData>
